--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="１１" sheetId="1" r:id="rId1"/>
     <sheet name="１２" sheetId="2" r:id="rId2"/>
+    <sheet name="2017-01" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>娘病院看病</t>
     <rPh sb="0" eb="1">
@@ -62,6 +63,16 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>メンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私用9:40出勤</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュッキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -144,6 +155,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -450,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,11 +812,11 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="E27" s="1">
         <f>D27-C27-B27</f>
-        <v>0.36805555555555552</v>
+        <v>0.37500000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -812,17 +824,17 @@
         <v>43067</v>
       </c>
       <c r="B28" s="1">
-        <v>0.35416666666666669</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C28" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="E28" s="1">
         <f>D28-C28-B28</f>
-        <v>0.36805555555555552</v>
+        <v>0.36805555555555564</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -864,7 +876,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E31" s="5">
         <f>SUM(E1:E30)</f>
-        <v>6.6736111111111116</v>
+        <v>6.6805555555555562</v>
       </c>
     </row>
   </sheetData>
@@ -878,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,7 +905,7 @@
         <v>43070</v>
       </c>
       <c r="B1" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="C1" s="1">
         <v>7.2916666666666671E-2</v>
@@ -903,7 +915,7 @@
       </c>
       <c r="E1" s="1">
         <f>D1-C1-B1</f>
-        <v>0.25347222222222227</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -974,11 +986,11 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E6" s="1">
         <f>D6-C6-B6</f>
-        <v>0.3576388888888889</v>
+        <v>0.37847222222222227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1013,11 +1025,11 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="E8" s="1">
         <f>D8-C8-B8</f>
-        <v>0.3576388888888889</v>
+        <v>0.36805555555555564</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1049,11 +1061,11 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11:E15" si="0">D11-C11-B11</f>
-        <v>0.3576388888888889</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1067,11 +1079,11 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0.3576388888888889</v>
+        <v>0.36805555555555564</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1085,11 +1097,11 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0.3576388888888889</v>
+        <v>0.37847222222222227</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1103,11 +1115,11 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>0.3576388888888889</v>
+        <v>0.33680555555555564</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1121,11 +1133,11 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>0.3576388888888889</v>
+        <v>0.33680555555555564</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1137,7 +1149,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>43086</v>
       </c>
@@ -1146,7 +1158,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43087</v>
       </c>
@@ -1157,14 +1169,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E22" si="1">D18-C18-B18</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <f t="shared" ref="E18:E24" si="1">D18-C18-B18</f>
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43088</v>
       </c>
@@ -1182,7 +1194,7 @@
         <v>0.3576388888888889</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43089</v>
       </c>
@@ -1200,12 +1212,12 @@
         <v>0.3576388888888889</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43090</v>
       </c>
       <c r="B21" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="C21" s="1">
         <v>7.2916666666666671E-2</v>
@@ -1215,10 +1227,13 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.31597222222222227</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43091</v>
       </c>
@@ -1229,28 +1244,37 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>43092</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>43093</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43094</v>
       </c>
@@ -1261,14 +1285,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ref="E25:E27" si="2">D25-C25-B25</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43095</v>
       </c>
@@ -1279,14 +1303,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="2"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43096</v>
       </c>
@@ -1297,32 +1321,35 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="2"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43097</v>
       </c>
       <c r="B28" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C28" s="1">
-        <v>7.2916666666666671E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ref="E28" si="3">D28-C28-B28</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43098</v>
       </c>
@@ -1331,7 +1358,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>43099</v>
       </c>
@@ -1340,13 +1367,508 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>43100</v>
       </c>
       <c r="E31" s="5">
         <f>SUM(E1:E30)</f>
-        <v>6.8298611111111134</v>
+        <v>6.8923611111111125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4">
+        <v>43101</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>43102</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>43103</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C3" s="8">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3-C3-B3</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4-C4-B4</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5-C5-B5</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>43106</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>43107</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>43108</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" ref="E8:E12" si="0">D8-C8-B8</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>43113</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>43114</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E19" si="1">D15-C15-B15</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>43120</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>43121</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22:E26" si="2">D22-C22-B22</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>43127</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>43128</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ref="E29:E31" si="3">D29-C29-B29</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E32" s="5">
+        <f>SUM(E2:E31)</f>
+        <v>7.5104166666666705</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="１１" sheetId="1" r:id="rId1"/>
     <sheet name="１２" sheetId="2" r:id="rId2"/>
-    <sheet name="2017-01" sheetId="3" r:id="rId3"/>
+    <sheet name="2018-01" sheetId="3" r:id="rId3"/>
+    <sheet name="2018-02" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>娘病院看病</t>
     <rPh sb="0" eb="1">
@@ -76,12 +77,29 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>午前私用</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私用</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +143,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -156,6 +180,8 @@
     <xf numFmtId="56" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -890,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -1385,19 +1411,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4">
         <v>43101</v>
       </c>
@@ -1406,7 +1433,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>43102</v>
       </c>
@@ -1415,25 +1442,25 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>43103</v>
       </c>
       <c r="B3" s="8">
-        <v>0.3611111111111111</v>
+        <v>0.375</v>
       </c>
       <c r="C3" s="8">
-        <v>7.2916666666666671E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D3" s="8">
-        <v>0.79166666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E3" s="8">
         <f>D3-C3-B3</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43104</v>
       </c>
@@ -1441,17 +1468,17 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="C4" s="1">
-        <v>7.2916666666666671E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E4" s="1">
         <f>D4-C4-B4</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43105</v>
       </c>
@@ -1462,14 +1489,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E5" s="1">
         <f>D5-C5-B5</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>43106</v>
       </c>
@@ -1478,7 +1505,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>43107</v>
       </c>
@@ -1487,7 +1514,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>43108</v>
       </c>
@@ -1498,14 +1525,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D8" s="8">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E12" si="0">D8-C8-B8</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43109</v>
       </c>
@@ -1516,14 +1543,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43110</v>
       </c>
@@ -1534,14 +1561,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43111</v>
       </c>
@@ -1552,14 +1579,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43112</v>
       </c>
@@ -1570,14 +1597,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.39930555555555564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>43113</v>
       </c>
@@ -1586,7 +1613,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>43114</v>
       </c>
@@ -1595,7 +1622,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43115</v>
       </c>
@@ -1613,25 +1640,28 @@
         <v>0.3576388888888889</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>43116</v>
       </c>
       <c r="B16" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7.2916666666666671E-2</v>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3.125E-2</v>
       </c>
       <c r="D16" s="1">
         <v>0.79166666666666663</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.21875</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -1649,7 +1679,7 @@
         <v>0.3576388888888889</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43118</v>
       </c>
@@ -1660,14 +1690,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43119</v>
       </c>
@@ -1678,14 +1708,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>43120</v>
       </c>
@@ -1694,7 +1724,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>43121</v>
       </c>
@@ -1703,7 +1733,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -1714,19 +1744,19 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ref="E22:E26" si="2">D22-C22-B22</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.2326388888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
       <c r="B23" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.375</v>
       </c>
       <c r="C23" s="1">
         <v>7.2916666666666671E-2</v>
@@ -1736,10 +1766,10 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -1757,7 +1787,7 @@
         <v>0.3576388888888889</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -1768,14 +1798,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43126</v>
       </c>
@@ -1786,14 +1816,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="2"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>43127</v>
       </c>
@@ -1802,7 +1832,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>43128</v>
       </c>
@@ -1811,7 +1841,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43129</v>
       </c>
@@ -1825,11 +1855,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E31" si="3">D29-C29-B29</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <f t="shared" ref="E29:E30" si="3">D29-C29-B29</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43130</v>
       </c>
@@ -1840,35 +1870,29 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="3"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43131</v>
       </c>
-      <c r="B31" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="C31" s="1">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="3"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>7.5104166666666705</v>
+        <v>6.6736111111111125</v>
       </c>
     </row>
   </sheetData>
@@ -1876,4 +1900,475 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="10">
+        <v>43132</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>43133</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2" si="0">D2-C2-B2</f>
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>43134</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>43135</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>43136</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5-C5-B5</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>43137</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E8" si="1">D6-C6-B6</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>43138</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>43139</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>43140</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E8:E12" si="2">D9-C9-B9</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>43141</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>43142</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>43143</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12" si="3">D12-C12-B12</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>43144</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:E16" si="4">D13-C13-B13</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>43145</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>43146</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>43147</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>43148</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>43149</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>43150</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E15:E21" si="5">D19-C19-B19</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>43151</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>43152</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>43153</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22:E23" si="6">D22-C22-B22</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>43154</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>43155</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>43156</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>43157</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E28" si="7">D26-C26-B26</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>43158</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="7"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>43159</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E32" s="5">
+        <f>SUM(E2:E31)</f>
+        <v>6.774305555555558</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="１１" sheetId="1" r:id="rId1"/>
     <sheet name="１２" sheetId="2" r:id="rId2"/>
     <sheet name="2018-01" sheetId="3" r:id="rId3"/>
     <sheet name="2018-02" sheetId="4" r:id="rId4"/>
+    <sheet name="2018-03" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>娘病院看病</t>
     <rPh sb="0" eb="1">
@@ -83,6 +85,13 @@
       <t>ゴゼン</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私用</t>
+    <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1413,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1904,10 +1913,485 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="10">
+        <v>43132</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>43133</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2" si="0">D2-C2-B2</f>
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>43134</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>43135</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>43136</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5-C5-B5</f>
+        <v>0.39930555555555564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>43137</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E8" si="1">D6-C6-B6</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>43138</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>43139</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>43140</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9" si="2">D9-C9-B9</f>
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>43141</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>43142</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>43143</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12" si="3">D12-C12-B12</f>
+        <v>0.33680555555555564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>43144</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:E16" si="4">D13-C13-B13</f>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>43145</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35069444444444448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>43146</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31944444444444442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>43147</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35069444444444448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>43148</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>43149</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>43150</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:E21" si="5">D19-C19-B19</f>
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>43151</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35069444444444448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>43152</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>43153</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22:E23" si="6">D22-C22-B22</f>
+        <v>0.35069444444444448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>43154</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>43155</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>43156</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>43157</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E28" si="7">D26-C26-B26</f>
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>43158</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="7"/>
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>43159</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E32" s="5">
+        <f>SUM(E2:E31)</f>
+        <v>6.697916666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1919,7 +2403,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1928,25 +2412,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
-        <v>43133</v>
+        <v>43161</v>
       </c>
       <c r="B2" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C2" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.78125</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2" si="0">D2-C2-B2</f>
-        <v>0.33680555555555564</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>43134</v>
+        <v>43162</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1955,7 +2439,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>43135</v>
+        <v>43163</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1964,25 +2448,25 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
-        <v>43136</v>
+        <v>43164</v>
       </c>
       <c r="B5" s="1">
         <v>0.3611111111111111</v>
       </c>
       <c r="C5" s="1">
-        <v>7.2916666666666671E-2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
         <f>D5-C5-B5</f>
-        <v>0.3576388888888889</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
-        <v>43137</v>
+        <v>43165</v>
       </c>
       <c r="B6" s="1">
         <v>0.3611111111111111</v>
@@ -1991,16 +2475,16 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E8" si="1">D6-C6-B6</f>
-        <v>0.3576388888888889</v>
+        <f t="shared" ref="E6:E9" si="1">D6-C6-B6</f>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
-        <v>43138</v>
+        <v>43166</v>
       </c>
       <c r="B7" s="1">
         <v>0.3611111111111111</v>
@@ -2009,16 +2493,16 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>0.3576388888888889</v>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
-        <v>43139</v>
+        <v>43167</v>
       </c>
       <c r="B8" s="1">
         <v>0.3611111111111111</v>
@@ -2027,16 +2511,16 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>0.3576388888888889</v>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
-        <v>43140</v>
+        <v>43168</v>
       </c>
       <c r="B9" s="1">
         <v>0.3611111111111111</v>
@@ -2045,16 +2529,16 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E8:E12" si="2">D9-C9-B9</f>
-        <v>0.3576388888888889</v>
+        <f t="shared" si="1"/>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>43141</v>
+        <v>43169</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2063,7 +2547,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>43142</v>
+        <v>43170</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2071,8 +2555,8 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>43143</v>
+      <c r="A12" s="10">
+        <v>43171</v>
       </c>
       <c r="B12" s="1">
         <v>0.3611111111111111</v>
@@ -2081,16 +2565,16 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12" si="3">D12-C12-B12</f>
-        <v>0.3576388888888889</v>
+        <f t="shared" ref="E12:E16" si="2">D12-C12-B12</f>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
-        <v>43144</v>
+        <v>43172</v>
       </c>
       <c r="B13" s="1">
         <v>0.3611111111111111</v>
@@ -2099,16 +2583,16 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:E16" si="4">D13-C13-B13</f>
-        <v>0.3576388888888889</v>
+        <f t="shared" si="2"/>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
-        <v>43145</v>
+        <v>43173</v>
       </c>
       <c r="B14" s="1">
         <v>0.3611111111111111</v>
@@ -2117,16 +2601,16 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="4"/>
-        <v>0.3576388888888889</v>
+        <f t="shared" si="2"/>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
-        <v>43146</v>
+        <v>43174</v>
       </c>
       <c r="B15" s="1">
         <v>0.3611111111111111</v>
@@ -2135,16 +2619,16 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="4"/>
-        <v>0.3576388888888889</v>
+        <f t="shared" si="2"/>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
-        <v>43147</v>
+        <v>43175</v>
       </c>
       <c r="B16" s="1">
         <v>0.3611111111111111</v>
@@ -2153,16 +2637,16 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="4"/>
-        <v>0.3576388888888889</v>
+        <f t="shared" si="2"/>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>43148</v>
+        <v>43176</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2171,7 +2655,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>43149</v>
+        <v>43177</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2180,7 +2664,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
-        <v>43150</v>
+        <v>43178</v>
       </c>
       <c r="B19" s="1">
         <v>0.3611111111111111</v>
@@ -2192,13 +2676,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E15:E21" si="5">D19-C19-B19</f>
+        <f t="shared" ref="E19:E23" si="3">D19-C19-B19</f>
         <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
-        <v>43151</v>
+        <v>43179</v>
       </c>
       <c r="B20" s="1">
         <v>0.3611111111111111</v>
@@ -2210,31 +2694,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
-        <v>43152</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="5"/>
-        <v>0.3576388888888889</v>
-      </c>
+      <c r="A21" s="4">
+        <v>43180</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
-        <v>43153</v>
+        <v>43181</v>
       </c>
       <c r="B22" s="1">
         <v>0.3611111111111111</v>
@@ -2246,13 +2721,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:E23" si="6">D22-C22-B22</f>
+        <f t="shared" si="3"/>
         <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
-        <v>43154</v>
+        <v>43182</v>
       </c>
       <c r="B23" s="1">
         <v>0.3611111111111111</v>
@@ -2264,13 +2739,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>43155</v>
+        <v>43183</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2279,7 +2754,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>43156</v>
+        <v>43184</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2288,7 +2763,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
-        <v>43157</v>
+        <v>43185</v>
       </c>
       <c r="B26" s="1">
         <v>0.3611111111111111</v>
@@ -2300,13 +2775,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ref="E26:E28" si="7">D26-C26-B26</f>
+        <f t="shared" ref="E26:E30" si="4">D26-C26-B26</f>
         <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
-        <v>43158</v>
+        <v>43186</v>
       </c>
       <c r="B27" s="1">
         <v>0.3611111111111111</v>
@@ -2318,13 +2793,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
-        <v>43159</v>
+        <v>43187</v>
       </c>
       <c r="B28" s="1">
         <v>0.3611111111111111</v>
@@ -2336,26 +2811,50 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="10">
+        <v>43188</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3576388888888889</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="10">
+        <v>43189</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3576388888888889</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4">
+        <v>43190</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2364,10 +2863,24 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>6.774305555555558</v>
+        <v>6.8368055555555589</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>娘病院看病</t>
     <rPh sb="0" eb="1">
@@ -99,6 +99,23 @@
   <si>
     <t>私用</t>
     <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私用</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午前私用</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2388,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2401,7 +2418,7 @@
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="10">
         <v>43160</v>
       </c>
@@ -2409,8 +2426,11 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>43161</v>
       </c>
@@ -2428,7 +2448,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>43162</v>
       </c>
@@ -2437,7 +2457,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>43163</v>
       </c>
@@ -2446,30 +2466,24 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>43164</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="1">
-        <f>D5-C5-B5</f>
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>43165</v>
       </c>
       <c r="B6" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C6" s="1">
         <v>7.2916666666666671E-2</v>
@@ -2479,10 +2493,10 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:E9" si="1">D6-C6-B6</f>
-        <v>0.34722222222222227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>43166</v>
       </c>
@@ -2500,7 +2514,7 @@
         <v>0.34722222222222227</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>43167</v>
       </c>
@@ -2518,7 +2532,7 @@
         <v>0.34722222222222227</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>43168</v>
       </c>
@@ -2529,14 +2543,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>0.34722222222222227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.37847222222222227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>43169</v>
       </c>
@@ -2545,7 +2559,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>43170</v>
       </c>
@@ -2554,7 +2568,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>43171</v>
       </c>
@@ -2565,14 +2579,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E16" si="2">D12-C12-B12</f>
-        <v>0.34722222222222227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>43172</v>
       </c>
@@ -2590,43 +2604,43 @@
         <v>0.34722222222222227</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>43173</v>
       </c>
       <c r="B14" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="C14" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>0.78125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>0.34722222222222227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>43174</v>
       </c>
       <c r="B15" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="C15" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>0.78125</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>0.34722222222222227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.34027777777777785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>43175</v>
       </c>
@@ -2644,7 +2658,7 @@
         <v>0.34722222222222227</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>43176</v>
       </c>
@@ -2653,7 +2667,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>43177</v>
       </c>
@@ -2662,7 +2676,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>43178</v>
       </c>
@@ -2673,14 +2687,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ref="E19:E23" si="3">D19-C19-B19</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.35069444444444448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>43179</v>
       </c>
@@ -2691,14 +2705,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="3"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>43180</v>
       </c>
@@ -2707,7 +2721,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>43181</v>
       </c>
@@ -2718,14 +2732,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>43182</v>
       </c>
@@ -2736,14 +2750,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="3"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.39930555555555564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>43183</v>
       </c>
@@ -2752,7 +2766,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>43184</v>
       </c>
@@ -2761,43 +2775,46 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>43185</v>
       </c>
       <c r="B26" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C26" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" ref="E26:E30" si="4">D26-C26-B26</f>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.34375000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>43186</v>
       </c>
       <c r="B27" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C27" s="1">
-        <v>7.2916666666666671E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="4"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.26041666666666674</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>43187</v>
       </c>
@@ -2808,14 +2825,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="4"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <v>43188</v>
       </c>
@@ -2826,14 +2843,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="4"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.39930555555555564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <v>43189</v>
       </c>
@@ -2844,14 +2861,14 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="4"/>
-        <v>0.3576388888888889</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.37847222222222227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>43190</v>
       </c>
@@ -2860,10 +2877,10 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E32" s="5">
         <f>SUM(E2:E31)</f>
-        <v>6.8368055555555589</v>
+        <v>6.9097222222222223</v>
       </c>
     </row>
   </sheetData>
